--- a/changeLog.xlsx
+++ b/changeLog.xlsx
@@ -24,13 +24,13 @@
     <t>Criado tabela de categoria</t>
   </si>
   <si>
-    <t>não</t>
-  </si>
-  <si>
     <t>Commit Servidor?</t>
   </si>
   <si>
     <t>Criado tabela de despesas</t>
+  </si>
+  <si>
+    <t>sim</t>
   </si>
 </sst>
 </file>
@@ -372,7 +372,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -384,7 +384,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -395,7 +395,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -403,10 +403,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/changeLog.xlsx
+++ b/changeLog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>2014-27-01</t>
   </si>
@@ -31,6 +31,15 @@
   </si>
   <si>
     <t>sim</t>
+  </si>
+  <si>
+    <t>Criado tabela de tipos de categorias</t>
+  </si>
+  <si>
+    <t>Adicionada coluna categoryTypeId na tabela "cashflowcategories"</t>
+  </si>
+  <si>
+    <t>Criada tabela de receitas</t>
   </si>
 </sst>
 </file>
@@ -369,16 +378,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -406,6 +415,39 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>4</v>
       </c>
     </row>

--- a/changeLog.xlsx
+++ b/changeLog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>2014-27-01</t>
   </si>
@@ -40,6 +40,15 @@
   </si>
   <si>
     <t>Criada tabela de receitas</t>
+  </si>
+  <si>
+    <t>2014-29-01</t>
+  </si>
+  <si>
+    <t>não</t>
+  </si>
+  <si>
+    <t>Removida as colunas de valor e data para cadastro das despesas/receitas. Adicionado todos os meses e ano</t>
   </si>
 </sst>
 </file>
@@ -378,16 +387,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="98" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -449,6 +458,17 @@
       </c>
       <c r="C6" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/changeLog.xlsx
+++ b/changeLog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>2014-27-01</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>2014-29-01</t>
-  </si>
-  <si>
-    <t>não</t>
   </si>
   <si>
     <t>Removida as colunas de valor e data para cadastro das despesas/receitas. Adicionado todos os meses e ano</t>
@@ -390,7 +387,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,10 +462,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/changeLog.xlsx
+++ b/changeLog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>2014-27-01</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>Removida as colunas de valor e data para cadastro das despesas/receitas. Adicionado todos os meses e ano</t>
+  </si>
+  <si>
+    <t>Adicionada tabela com saldo</t>
+  </si>
+  <si>
+    <t>não</t>
   </si>
 </sst>
 </file>
@@ -81,8 +87,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,15 +391,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="98" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
   </cols>
@@ -466,6 +473,17 @@
       </c>
       <c r="C7" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>41761</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/changeLog.xlsx
+++ b/changeLog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>2014-27-01</t>
   </si>
@@ -51,7 +51,13 @@
     <t>Adicionada tabela com saldo</t>
   </si>
   <si>
+    <t>Adicionado campo userType na tabela users</t>
+  </si>
+  <si>
     <t>não</t>
+  </si>
+  <si>
+    <t>Adicionado campo userMaster na tabela users</t>
   </si>
 </sst>
 </file>
@@ -391,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,8 +489,33 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>41676</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
       </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>41676</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/changeLog.xlsx
+++ b/changeLog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
@@ -11,12 +11,12 @@
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>2014-27-01</t>
   </si>
@@ -58,13 +58,19 @@
   </si>
   <si>
     <t>Adicionado campo userMaster na tabela users</t>
+  </si>
+  <si>
+    <t>Adicionado indice na coluna email na tabela users (agora é campo único)</t>
+  </si>
+  <si>
+    <t>userType na table users agora é varchar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,7 +191,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -220,7 +225,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -396,26 +400,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="98" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -426,7 +430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -437,7 +441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -448,7 +452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -459,7 +463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -470,7 +474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -481,7 +485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>41761</v>
       </c>
@@ -492,7 +496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>41676</v>
       </c>
@@ -503,7 +507,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>41676</v>
       </c>
@@ -514,8 +518,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>41676</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>41676</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -523,24 +546,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/changeLog.xlsx
+++ b/changeLog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>2014-27-01</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Adicionado campo userType na tabela users</t>
-  </si>
-  <si>
-    <t>não</t>
   </si>
   <si>
     <t>Adicionado campo userMaster na tabela users</t>
@@ -404,7 +401,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C8" sqref="C8:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -504,7 +501,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -512,10 +509,10 @@
         <v>41676</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -523,10 +520,10 @@
         <v>41676</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -534,10 +531,10 @@
         <v>41676</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/changeLog.xlsx
+++ b/changeLog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>2014-27-01</t>
   </si>
@@ -61,13 +61,25 @@
   </si>
   <si>
     <t>userType na table users agora é varchar</t>
+  </si>
+  <si>
+    <t>alterado nome de campo na tabela cashflowsaldo de empresaId para userMaster varchar 255</t>
+  </si>
+  <si>
+    <t>não</t>
+  </si>
+  <si>
+    <t>Adicionado campo userMaster nas tabelas cashflowincome e cashflowexpenses</t>
+  </si>
+  <si>
+    <t>Alterado campo userId para userMaster varchar 255</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +200,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -222,6 +235,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -397,26 +411,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="98" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -427,7 +441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -438,7 +452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -449,7 +463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -460,7 +474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -471,7 +485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -482,7 +496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>41761</v>
       </c>
@@ -493,7 +507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>41676</v>
       </c>
@@ -504,7 +518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>41676</v>
       </c>
@@ -515,7 +529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>41676</v>
       </c>
@@ -526,7 +540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>41676</v>
       </c>
@@ -535,6 +549,39 @@
       </c>
       <c r="C12" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>41677</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>41677</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>41677</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -543,24 +590,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/changeLog.xlsx
+++ b/changeLog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>2014-27-01</t>
   </si>
@@ -66,13 +66,10 @@
     <t>alterado nome de campo na tabela cashflowsaldo de empresaId para userMaster varchar 255</t>
   </si>
   <si>
-    <t>não</t>
-  </si>
-  <si>
     <t>Adicionado campo userMaster nas tabelas cashflowincome e cashflowexpenses</t>
   </si>
   <si>
-    <t>Alterado campo userId para userMaster varchar 255</t>
+    <t>Alterado campo userId para userMaster na tabela de categorias varchar 255</t>
   </si>
 </sst>
 </file>
@@ -415,7 +412,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +556,7 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -567,10 +564,10 @@
         <v>41677</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -578,10 +575,10 @@
         <v>41677</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/changeLog.xlsx
+++ b/changeLog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>2014-27-01</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Alterado campo userId para userMaster na tabela de categorias varchar 255</t>
+  </si>
+  <si>
+    <t>Adicionado campo varchar ano na tabela cashflowcategories</t>
+  </si>
+  <si>
+    <t>não</t>
   </si>
 </sst>
 </file>
@@ -409,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,6 +585,17 @@
       </c>
       <c r="C15" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>41832</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/changeLog.xlsx
+++ b/changeLog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>2014-27-01</t>
   </si>
@@ -73,16 +73,13 @@
   </si>
   <si>
     <t>Adicionado campo varchar ano na tabela cashflowcategories</t>
-  </si>
-  <si>
-    <t>não</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,7 +200,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -238,7 +234,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -414,26 +409,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="98" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -444,7 +439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -455,7 +450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -466,7 +461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -477,7 +472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -488,7 +483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -499,7 +494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>41761</v>
       </c>
@@ -510,7 +505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>41676</v>
       </c>
@@ -521,7 +516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>41676</v>
       </c>
@@ -532,7 +527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>41676</v>
       </c>
@@ -543,7 +538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>41676</v>
       </c>
@@ -554,7 +549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>41677</v>
       </c>
@@ -565,7 +560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>41677</v>
       </c>
@@ -576,7 +571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>41677</v>
       </c>
@@ -587,7 +582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>41832</v>
       </c>
@@ -595,7 +590,7 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -604,24 +599,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
